--- a/biology/Biologie cellulaire et moléculaire/Sphère_pédonculée/Sphère_pédonculée.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Sphère_pédonculée/Sphère_pédonculée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sph%C3%A8re_p%C3%A9doncul%C3%A9e</t>
+          <t>Sphère_pédonculée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une cellule vivante, les sphères pédonculées sont des structures qui contiennent l'atp synthétase qui est une enzyme permettant la synthèse de l'atp (la phosphorylation de l'ADP en ATP). Elles se situent au niveau des crêtes mitochondriales plus précisément au niveau de la membrane mitochondriale interne. 
  Portail de la biologie cellulaire et moléculaire                     </t>
